--- a/PRL Induction procedures/data/RSVP_grouped_ACC.xlsx
+++ b/PRL Induction procedures/data/RSVP_grouped_ACC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecutts99\Documents\GitHub\FLAP\PRL Induction procedures\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97034F4-F1C9-4A18-B801-87B75403F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40D9C4-EDE7-43A0-83AE-88A3979AC825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2DB3A70D-FAA6-479D-8175-74B045C7C1F8}"/>
+    <workbookView xWindow="11130" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{2DB3A70D-FAA6-479D-8175-74B045C7C1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +75,54 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>ENDO h</t>
+  </si>
+  <si>
+    <t>EXO h</t>
+  </si>
+  <si>
+    <t>ENDO</t>
+  </si>
+  <si>
+    <t>EXO</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>CON2</t>
+  </si>
+  <si>
+    <t>CON3</t>
+  </si>
+  <si>
+    <t>CON4</t>
+  </si>
+  <si>
+    <t>INCON1</t>
+  </si>
+  <si>
+    <t>INCON2</t>
+  </si>
+  <si>
+    <t>INCON3</t>
+  </si>
+  <si>
+    <t>INCON4</t>
+  </si>
+  <si>
+    <t>ENDOINCON</t>
+  </si>
+  <si>
+    <t>EXOINCON</t>
   </si>
 </sst>
 </file>
@@ -97,17 +146,53 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -117,9 +202,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B96F73-4499-49D1-B452-7FD2B7FE5F1F}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +554,7 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,158 +576,1009 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0.83330000000000004</v>
+        <v>0.63890000000000002</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>4.1699999999999959E-2</v>
+        <v>-9.7200000000000064E-2</v>
       </c>
       <c r="E2">
-        <v>0.91669999999999996</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="F2">
-        <v>0.95830000000000004</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="G2">
         <f>F2-E2</f>
-        <v>4.1600000000000081E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-4.1600000000000081E-2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.94440000000000002</v>
+        <v>0.73609999999999998</v>
       </c>
       <c r="C3">
-        <v>0.95830000000000004</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>1.3900000000000023E-2</v>
+        <v>5.5599999999999983E-2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="F3">
-        <v>0.95830000000000004</v>
+        <v>0.875</v>
       </c>
       <c r="G3">
         <f>F3-E3</f>
+        <v>-8.3300000000000041E-2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.875</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">C4-B4</f>
+        <v>4.1699999999999959E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G9" si="1">F4-E4</f>
+        <v>4.1600000000000081E-2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.3900000000000023E-2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
         <v>-4.1699999999999959E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>0.97219999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>0.95830000000000004</v>
       </c>
-      <c r="D4">
-        <f>C4-B4</f>
+      <c r="D6">
+        <f t="shared" si="0"/>
         <v>-1.3899999999999912E-2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0.91669999999999996</v>
       </c>
-      <c r="G4">
-        <f>F4-E4</f>
+      <c r="G6">
+        <f t="shared" si="1"/>
         <v>-8.3300000000000041E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.73609999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.79169999999999996</v>
-      </c>
-      <c r="D5">
-        <f>C5-B5</f>
-        <v>5.5599999999999983E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.95830000000000004</v>
-      </c>
-      <c r="F5">
-        <v>0.875</v>
-      </c>
-      <c r="G5">
-        <f>F5-E5</f>
-        <v>-8.3300000000000041E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.875</v>
-      </c>
-      <c r="D6">
-        <f>C6-B6</f>
-        <v>-6.9400000000000017E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <f>F6-E6</f>
-        <v>8.3300000000000041E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.80559999999999998</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C7">
-        <v>0.79169999999999996</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D7">
         <f>C7-B7</f>
-        <v>-1.3900000000000023E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.79169999999999996</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="F7">
-        <v>0.79169999999999996</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="G7">
         <f>F7-E7</f>
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.875</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-6.9400000000000017E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>8.3300000000000041E-2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-1.3900000000000023E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="F9">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="D14">
+        <f>C14-B14</f>
+        <v>6.9400000000000017E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.875</v>
+      </c>
+      <c r="F14">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="G14">
+        <f>F14-E14</f>
+        <v>-4.1699999999999959E-2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="C15">
+        <v>0.875</v>
+      </c>
+      <c r="D15">
+        <f>C15-B15</f>
+        <v>-9.7199999999999953E-2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.875</v>
+      </c>
+      <c r="G15">
+        <f>F15-E15</f>
+        <v>-0.125</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE4EE56-3435-4342-85C9-E4EE72415BE3}">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>8</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6">
+        <f>SUM(B3:E3)</f>
+        <v>17</v>
+      </c>
+      <c r="T3" s="6">
+        <f>SUM(F3:I3)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <f>SUM(J3:M3)</f>
+        <v>16</v>
+      </c>
+      <c r="V3" s="6">
+        <f>SUM(N3:Q3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>6</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>3</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" ref="S4:S10" si="0">SUM(B4:E4)</f>
+        <v>8</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" ref="T4:T10" si="1">SUM(F4:I4)</f>
+        <v>3</v>
+      </c>
+      <c r="U4" s="6">
+        <f t="shared" ref="U4:U10" si="2">SUM(J4:M4)</f>
+        <v>13</v>
+      </c>
+      <c r="V4" s="6">
+        <f t="shared" ref="V4:V10" si="3">SUM(N4:Q4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>5</v>
+      </c>
+      <c r="K8" s="9">
+        <v>7</v>
+      </c>
+      <c r="L8" s="9">
+        <v>3</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9">
+        <v>3</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>